--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/GetPivot_02_06.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/GetPivot_02_06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645DC0F-293E-40DF-8AA8-DB9BDAD86545}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371623D-FD2D-4263-A990-11B1A76B765C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -34,7 +34,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="254">
   <si>
     <t>OrderNum</t>
   </si>
@@ -875,7 +878,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -4795,7 +4798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5094,10 +5097,10 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -5182,6 +5185,10 @@
       <c r="F3" t="s">
         <v>208</v>
       </c>
+      <c r="G3">
+        <f>GETPIVOTDATA("Total Price",$A$3,"Category","Batteries")</f>
+        <v>1219092.75</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -5192,6 +5199,13 @@
       </c>
       <c r="D4" t="s">
         <v>248</v>
+      </c>
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4">
+        <f>GETPIVOTDATA("Total Price",$A$3,"Category",F4)</f>
+        <v>11108.97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5311,7 +5325,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
